--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10A1D7-09CB-459D-A9FC-E52E229E46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DACDF-84ED-44A7-BA0C-1494C66411E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Test</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>project-excel-helper</t>
+  </si>
+  <si>
+    <t>project-2.spec</t>
+  </si>
+  <si>
+    <t>contract-1.spec</t>
+  </si>
+  <si>
+    <t>contract-2.spec</t>
   </si>
 </sst>
 </file>
@@ -307,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -335,8 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -679,7 +686,7 @@
   <dimension ref="D5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,15 +767,15 @@
       <c r="F8" s="18">
         <v>65</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="19">
         <v>20</v>
       </c>
       <c r="H8" s="20">
         <v>64</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -776,95 +783,169 @@
       <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="19">
         <v>65</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="19">
         <v>16</v>
       </c>
       <c r="H9" s="24">
         <v>66</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="22">
+        <v>76</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6">
+        <v>12</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="18">
+        <v>62</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20">
+        <v>62</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19">
+        <v>65</v>
+      </c>
+      <c r="G12" s="19">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24">
+        <v>66</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="10"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="22">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6">
+        <v>20</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="11"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="18">
+        <v>71</v>
+      </c>
+      <c r="G14" s="19">
+        <v>50</v>
+      </c>
+      <c r="H14" s="20">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="22">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
+        <v>30</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="18">
+        <v>81</v>
+      </c>
+      <c r="G16" s="19">
+        <v>58</v>
+      </c>
+      <c r="H16" s="20">
+        <v>80</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DACDF-84ED-44A7-BA0C-1494C66411E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C4117-716D-4C94-8384-256285D88831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Test</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>contract-2.spec</t>
+  </si>
+  <si>
+    <t>report-1.spec.ts</t>
+  </si>
+  <si>
+    <t>third-party-eval-report-service</t>
+  </si>
+  <si>
+    <t>gender-report-service</t>
+  </si>
+  <si>
+    <t>universal-data-to-excel</t>
+  </si>
+  <si>
+    <t>result-to-universal-report-data</t>
+  </si>
+  <si>
+    <t>report-2.spec.ts</t>
   </si>
 </sst>
 </file>
@@ -685,14 +703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -949,113 +967,189 @@
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="21">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+      <c r="H17" s="22">
+        <v>98</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>27</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="18">
+        <v>90</v>
+      </c>
+      <c r="G18" s="19">
+        <v>47</v>
+      </c>
+      <c r="H18" s="20">
+        <v>91</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="19">
+        <v>78</v>
+      </c>
+      <c r="G19" s="19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="20">
+        <v>78</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="11"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="23">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3">
+        <v>60</v>
+      </c>
+      <c r="H20" s="24">
+        <v>78</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="21">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" s="22">
+        <v>98</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>27</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18">
+        <v>90</v>
+      </c>
+      <c r="G22" s="19">
+        <v>41</v>
+      </c>
+      <c r="H22" s="20">
+        <v>91</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="10"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="19">
+        <v>78</v>
+      </c>
+      <c r="G23" s="19">
+        <v>50</v>
+      </c>
+      <c r="H23" s="20">
+        <v>78</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="11"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="24"/>
+      <c r="E24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="23">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3">
+        <v>60</v>
+      </c>
+      <c r="H24" s="24">
+        <v>78</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="11"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C4117-716D-4C94-8384-256285D88831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E905FB-1188-4B61-B559-1F7F70D8FB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Test</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>report-2.spec.ts</t>
+  </si>
+  <si>
+    <t>person-1.spec.ts</t>
+  </si>
+  <si>
+    <t>person-excel-helper</t>
+  </si>
+  <si>
+    <t>person-2.spec.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -704,7 +716,7 @@
   <dimension ref="D5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,69 +1143,133 @@
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="18">
+        <v>79</v>
+      </c>
+      <c r="G25" s="19">
+        <v>100</v>
+      </c>
+      <c r="H25" s="20">
+        <v>77</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="18">
+        <v>63</v>
+      </c>
+      <c r="G26" s="19">
+        <v>51</v>
+      </c>
+      <c r="H26" s="20">
+        <v>63</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="23">
+        <v>71</v>
+      </c>
+      <c r="G27" s="3">
+        <v>42</v>
+      </c>
+      <c r="H27" s="24">
+        <v>70</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="D28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="18">
+        <v>76</v>
+      </c>
+      <c r="G28" s="19">
+        <v>100</v>
+      </c>
+      <c r="H28" s="20">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8</v>
+      </c>
+      <c r="J28" s="4">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="18">
+        <v>57</v>
+      </c>
+      <c r="G29" s="19">
+        <v>46</v>
+      </c>
+      <c r="H29" s="20">
+        <v>58</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="9"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="23">
+        <v>53</v>
+      </c>
+      <c r="G30" s="3">
+        <v>26</v>
+      </c>
+      <c r="H30" s="24">
+        <v>52</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E905FB-1188-4B61-B559-1F7F70D8FB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226E401-E11B-4FA4-94E1-882781BF2EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Test</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>ohne</t>
+  </si>
+  <si>
+    <t>Controller</t>
   </si>
 </sst>
 </file>
@@ -141,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,11 +360,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,8 +442,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,20 +796,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:L32"/>
+  <dimension ref="C3:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="12" width="15.7109375" customWidth="1"/>
+    <col min="6" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="25"/>
       <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
@@ -751,9 +841,18 @@
       <c r="K5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="25"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
@@ -762,9 +861,12 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="25"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
@@ -787,9 +889,21 @@
         <v>27</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L7" s="21">
+        <f>ROUND(AVERAGE(F8:F9),0)</f>
+        <v>65</v>
+      </c>
+      <c r="M7" s="2">
+        <f>ROUND(AVERAGE(G8:G9),0)</f>
+        <v>18</v>
+      </c>
+      <c r="N7" s="22">
+        <f>ROUND(AVERAGE(H8:H9),0)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="25"/>
       <c r="D8" s="9"/>
       <c r="E8" s="13" t="s">
         <v>9</v>
@@ -806,9 +920,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="25"/>
       <c r="D9" s="11"/>
       <c r="E9" s="15" t="s">
         <v>11</v>
@@ -824,10 +941,13 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K9" s="34"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
@@ -850,9 +970,21 @@
         <v>12</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L10" s="21">
+        <f>ROUND(AVERAGE(F11:F12),0)</f>
+        <v>64</v>
+      </c>
+      <c r="M10" s="2">
+        <f>ROUND(AVERAGE(G11:G12),0)</f>
+        <v>13</v>
+      </c>
+      <c r="N10" s="22">
+        <f>ROUND(AVERAGE(H11:H12),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="25"/>
       <c r="D11" s="9"/>
       <c r="E11" s="13" t="s">
         <v>9</v>
@@ -869,9 +1001,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="25"/>
       <c r="D12" s="11"/>
       <c r="E12" s="15" t="s">
         <v>11</v>
@@ -887,10 +1022,13 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K12" s="34"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="25"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
@@ -913,9 +1051,21 @@
         <v>20</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L13" s="21">
+        <f>ROUND(AVERAGE(F14),0)</f>
+        <v>71</v>
+      </c>
+      <c r="M13" s="2">
+        <f>ROUND(AVERAGE(G14),0)</f>
+        <v>50</v>
+      </c>
+      <c r="N13" s="22">
+        <f>ROUND(AVERAGE(H14),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="25"/>
       <c r="D14" s="9"/>
       <c r="E14" s="13" t="s">
         <v>9</v>
@@ -932,9 +1082,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="25"/>
       <c r="D15" s="10" t="s">
         <v>14</v>
       </c>
@@ -957,9 +1110,21 @@
         <v>30</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L15" s="21">
+        <f>ROUND(AVERAGE(F16),0)</f>
+        <v>81</v>
+      </c>
+      <c r="M15" s="2">
+        <f>ROUND(AVERAGE(G16),0)</f>
+        <v>58</v>
+      </c>
+      <c r="N15" s="22">
+        <f>ROUND(AVERAGE(H16),0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="25"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13" t="s">
         <v>9</v>
@@ -976,9 +1141,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="25"/>
       <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1001,9 +1169,21 @@
         <v>27</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L17" s="21">
+        <f>ROUND(AVERAGE(F17:F20),0)</f>
+        <v>86</v>
+      </c>
+      <c r="M17" s="2">
+        <f>ROUND(AVERAGE(G17:G20),0)</f>
+        <v>54</v>
+      </c>
+      <c r="N17" s="22">
+        <f>ROUND(AVERAGE(H17:H20),0)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="25"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13" t="s">
         <v>17</v>
@@ -1020,9 +1200,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="25"/>
       <c r="D19" s="9"/>
       <c r="E19" s="13" t="s">
         <v>18</v>
@@ -1038,10 +1221,13 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K19" s="35"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="25"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
@@ -1058,9 +1244,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L20" s="23"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="25"/>
       <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
@@ -1083,9 +1272,21 @@
         <v>27</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L21" s="21">
+        <f>ROUND(AVERAGE(F21:F24),0)</f>
+        <v>86</v>
+      </c>
+      <c r="M21" s="2">
+        <f>ROUND(AVERAGE(G21:G24),0)</f>
+        <v>58</v>
+      </c>
+      <c r="N21" s="22">
+        <f>ROUND(AVERAGE(H21:H24),0)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="25"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
         <v>17</v>
@@ -1102,9 +1303,12 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="25"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
         <v>18</v>
@@ -1120,10 +1324,13 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K23" s="35"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="25"/>
       <c r="D24" s="11"/>
       <c r="E24" s="15" t="s">
         <v>19</v>
@@ -1140,9 +1347,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L24" s="23"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="25"/>
       <c r="D25" s="9" t="s">
         <v>21</v>
       </c>
@@ -1167,9 +1377,21 @@
       <c r="K25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L25" s="18">
+        <f>ROUND(AVERAGE(F26:F27),0)</f>
+        <v>67</v>
+      </c>
+      <c r="M25" s="19">
+        <f>ROUND(AVERAGE(G26:G27),0)</f>
+        <v>47</v>
+      </c>
+      <c r="N25" s="20">
+        <f>ROUND(AVERAGE(H26:H27),0)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="25"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -1186,9 +1408,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="25"/>
       <c r="D27" s="11"/>
       <c r="E27" s="15" t="s">
         <v>22</v>
@@ -1205,9 +1430,12 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L27" s="23"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="25"/>
       <c r="D28" s="9" t="s">
         <v>23</v>
       </c>
@@ -1232,9 +1460,21 @@
       <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L28" s="18">
+        <f>ROUND(AVERAGE(F29:F30),0)</f>
+        <v>55</v>
+      </c>
+      <c r="M28" s="19">
+        <f>ROUND(AVERAGE(G29:G30),0)</f>
+        <v>36</v>
+      </c>
+      <c r="N28" s="20">
+        <f>ROUND(AVERAGE(H29:H30),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="25"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
         <v>9</v>
@@ -1251,9 +1491,12 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="25"/>
       <c r="D30" s="11"/>
       <c r="E30" s="15" t="s">
         <v>22</v>
@@ -1270,9 +1513,12 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L30" s="23"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="25"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13"/>
       <c r="F31" s="18"/>
@@ -1281,18 +1527,67 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="9"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="26"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33">
+        <f>SUM(I7:I28)</f>
+        <v>86</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7">
+        <f>ROUND(AVERAGE(J7:J28),0)</f>
+        <v>24</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="23">
+        <f>ROUND(AVERAGE(L7:L28),0)</f>
+        <v>72</v>
+      </c>
+      <c r="M33" s="3">
+        <f>ROUND(AVERAGE(M7:M28),0)</f>
+        <v>42</v>
+      </c>
+      <c r="N33" s="24">
+        <f>ROUND(AVERAGE(N7:N28),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L35" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226E401-E11B-4FA4-94E1-882781BF2EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C925221-BA10-4125-A6FC-1BF3267A523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Test</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Controller</t>
+  </si>
+  <si>
+    <t>Std.-Abw.</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -454,7 +463,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:N35"/>
+  <dimension ref="C3:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="14" width="15.7109375" customWidth="1"/>
@@ -1578,16 +1593,120 @@
         <v>72</v>
       </c>
     </row>
+    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7">
+        <f>MEDIAN(J7:J28)</f>
+        <v>27</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="24"/>
+    </row>
     <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L35" s="37" t="s">
+      <c r="C35" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7">
+        <f>ROUND(_xlfn.STDEV.P(J7:J28),1)</f>
+        <v>5.9</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="23">
+        <f>ROUND(_xlfn.STDEV.P(L7:L28),1)</f>
+        <v>10.6</v>
+      </c>
+      <c r="M35" s="3">
+        <f>ROUND(_xlfn.STDEV.P(M7:M28),1)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N35" s="24">
+        <f>ROUND(_xlfn.STDEV.P(N7:N28),1)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="26"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="26"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="M37" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N37" s="39" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="26"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="26"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/pincher/backend/interactive/metrics.xlsx
+++ b/generated-tests/pincher/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\pincher\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C925221-BA10-4125-A6FC-1BF3267A523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514330E2-E150-4B2F-A949-06214DA22CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Test</t>
   </si>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,9 +1608,18 @@
         <v>27</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="24"/>
+      <c r="L34" s="23">
+        <f>MEDIAN(L7:L28)</f>
+        <v>69</v>
+      </c>
+      <c r="M34" s="3">
+        <f>MEDIAN(M7:M28)</f>
+        <v>48.5</v>
+      </c>
+      <c r="N34" s="24">
+        <f>MEDIAN(N7:N28)</f>
+        <v>68.5</v>
+      </c>
     </row>
     <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="26" t="s">
@@ -1685,7 +1694,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M38" s="38" t="s">
         <v>27</v>
@@ -1704,9 +1713,15 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="24"/>
+      <c r="L39" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
